--- a/Result/工作簿1.xlsx
+++ b/Result/工作簿1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20670" windowHeight="9360"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20670" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
   <si>
     <t>d1p0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +56,14 @@
   </si>
   <si>
     <t>靶粒子动能变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子体系能量变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入射粒子电荷态变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,6 +184,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -183,9 +195,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -483,22 +492,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -513,7 +522,7 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,7 +535,7 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
@@ -553,7 +562,7 @@
       <c r="D3" s="2">
         <v>-13.92</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1">
         <v>0</v>
       </c>
@@ -566,7 +575,7 @@
       <c r="I3" s="2">
         <v>-6.7309999999999999</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="1">
         <v>0</v>
       </c>
@@ -593,7 +602,7 @@
       <c r="D4" s="2">
         <v>-29.65</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -606,7 +615,7 @@
       <c r="I4" s="2">
         <v>-25.126999999999999</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="1">
         <v>1</v>
       </c>
@@ -631,7 +640,7 @@
         <v>-36.909999999999997</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1">
         <v>4</v>
       </c>
@@ -644,7 +653,7 @@
       <c r="I5" s="2">
         <v>-39.06</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="1">
         <v>4</v>
       </c>
@@ -659,22 +668,22 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -689,7 +698,7 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
@@ -702,7 +711,7 @@
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="1" t="s">
         <v>5</v>
       </c>
@@ -729,7 +738,7 @@
       <c r="D11" s="2">
         <v>0.2</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1">
         <v>0</v>
       </c>
@@ -742,7 +751,7 @@
       <c r="I11" s="2">
         <v>0.1</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="1">
         <v>0</v>
       </c>
@@ -769,7 +778,7 @@
       <c r="D12" s="2">
         <v>0.03</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1">
         <v>2</v>
       </c>
@@ -782,7 +791,7 @@
       <c r="I12" s="2">
         <v>0.01</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="1">
         <v>1</v>
       </c>
@@ -807,7 +816,7 @@
         <v>0.22</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1">
         <v>4</v>
       </c>
@@ -820,7 +829,7 @@
       <c r="I13" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="1">
         <v>4</v>
       </c>
@@ -843,4 +852,729 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="6" max="6" width="0.875" customWidth="1"/>
+    <col min="7" max="7" width="6.125" customWidth="1"/>
+    <col min="11" max="11" width="0.875" customWidth="1"/>
+    <col min="12" max="12" width="6.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-15.19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-7.78</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-13.92</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-4.76</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-3.8769999999999998</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-6.7309999999999999</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-0.32</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.1819999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-9.1880000000000006</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-24.9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-29.65</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-6.62</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-12.76</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-25.126999999999999</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-0.44</v>
+      </c>
+      <c r="N5" s="2">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-23.065999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-36.909999999999997</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-18.34</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-33.07</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-39.06</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-10.436999999999999</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-18.106999999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <v>-23.72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20.143000000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>11.15</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.456</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>6.98</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="O12" s="2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.617</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-6.6360000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E20" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-7.3170000000000002</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-5.3869999999999996</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6.617</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>-9.4480000000000004</v>
+      </c>
+      <c r="N20" s="2">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="O20" s="2">
+        <v>-1.2430000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6.0259999999999998</v>
+      </c>
+      <c r="D21" s="2">
+        <v>24.516999999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>29.603000000000002</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5.56</v>
+      </c>
+      <c r="I21" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="J21" s="2">
+        <v>25.225999999999999</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1.036</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20.446999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>35.53</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="I22" s="2">
+        <v>32.85</v>
+      </c>
+      <c r="J22" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="1">
+        <v>4</v>
+      </c>
+      <c r="M22" s="2">
+        <v>9.4239999999999995</v>
+      </c>
+      <c r="N22" s="2">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="O22" s="2">
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.31</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2.238</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.9476</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-0.19500000000000001</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="J30" s="2">
+        <v>-0.28770000000000001</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="1">
+        <v>4</v>
+      </c>
+      <c r="M30" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.1789</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B26:O26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>